--- a/基准与月份数据对比.xlsx
+++ b/基准与月份数据对比.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="煤耗比较" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="基准数据" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,31 +436,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>工况</t>
+          <t>参数</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>benchmark_coal_consumption</t>
+          <t>基准值</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>comparison_results</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>coal_consumption_results</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>49.36112933875741</v>
       </c>
     </row>
   </sheetData>
